--- a/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18F5896-EDEC-4B48-A180-51F73D26F6A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97588F85-1EF8-49D3-8E42-319FF13B866C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
     <sheet name="Belgium" sheetId="11" r:id="rId2"/>
     <sheet name="Czech" sheetId="12" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="23">
   <si>
     <t>Wg</t>
   </si>
@@ -98,6 +99,12 @@
   </si>
   <si>
     <t>NGC-3477/T1850</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2645</t>
   </si>
 </sst>
 </file>
@@ -755,6 +762,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55030F90-DF7A-4F6D-88F0-5A09BFE8D6D1}">
   <dimension ref="A1:D14"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F21375-7230-43F3-9901-AEEFAD7BA19C}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
@@ -780,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -802,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97588F85-1EF8-49D3-8E42-319FF13B866C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B7B685-7097-4DAA-9AD4-866340ECA2AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
     <sheet name="Belgium" sheetId="11" r:id="rId2"/>
     <sheet name="Czech" sheetId="12" r:id="rId3"/>
     <sheet name="Swiss" sheetId="13" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -105,6 +106,12 @@
   </si>
   <si>
     <t>NGC-3476/T2645</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2436</t>
   </si>
 </sst>
 </file>
@@ -529,7 +536,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,7 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F21375-7230-43F3-9901-AEEFAD7BA19C}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -990,4 +997,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA09734-A1E6-4CD4-AF74-23FC0053DD96}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B7B685-7097-4DAA-9AD4-866340ECA2AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7759E1-5672-4020-B61B-FA46BA7E1945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="12" r:id="rId3"/>
     <sheet name="Swiss" sheetId="13" r:id="rId4"/>
     <sheet name="Portugal" sheetId="14" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="15" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -112,6 +113,12 @@
   </si>
   <si>
     <t>NGC-3479/T2436</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3178</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
   </si>
 </sst>
 </file>
@@ -1003,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA09734-A1E6-4CD4-AF74-23FC0053DD96}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,4 +1121,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B746283F-A0B6-4F05-B3AE-FFE3D255B565}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7759E1-5672-4020-B61B-FA46BA7E1945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB8B54A-B9E8-4C27-967E-36415A52CB64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="13" r:id="rId4"/>
     <sheet name="Portugal" sheetId="14" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="15" r:id="rId6"/>
+    <sheet name="Italy" sheetId="16" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -119,6 +120,12 @@
   </si>
   <si>
     <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-3145/T2224 </t>
   </si>
 </sst>
 </file>
@@ -1127,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B746283F-A0B6-4F05-B3AE-FFE3D255B565}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1238,4 +1245,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480C6559-2FF9-4C6A-BC73-FD4137E8F64E}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB8B54A-B9E8-4C27-967E-36415A52CB64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13CF146-D7A9-48DA-9B58-F889F9BB946F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="14" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="15" r:id="rId6"/>
     <sheet name="Italy" sheetId="16" r:id="rId7"/>
+    <sheet name="Spain" sheetId="17" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -126,6 +127,12 @@
   </si>
   <si>
     <t xml:space="preserve">NGC-3145/T2224 </t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-3103/T2051 </t>
   </si>
 </sst>
 </file>
@@ -1251,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480C6559-2FF9-4C6A-BC73-FD4137E8F64E}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1362,4 +1369,120 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9854D4FD-154B-4745-885B-D513DDBFC77B}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13CF146-D7A9-48DA-9B58-F889F9BB946F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61ABCB5-3ACB-472F-B6C9-0E722DF6438C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="15" r:id="rId6"/>
     <sheet name="Italy" sheetId="16" r:id="rId7"/>
     <sheet name="Spain" sheetId="17" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="18" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -133,6 +134,12 @@
   </si>
   <si>
     <t xml:space="preserve">NGC-3103/T2051 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-3191/T3311 </t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
   </si>
 </sst>
 </file>
@@ -1375,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9854D4FD-154B-4745-885B-D513DDBFC77B}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1485,4 +1492,120 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2F46DB-A339-49DF-884B-815383B5ED49}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61ABCB5-3ACB-472F-B6C9-0E722DF6438C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDEFD8A-A240-476F-BDE0-668DEC11696E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="16" r:id="rId7"/>
     <sheet name="Spain" sheetId="17" r:id="rId8"/>
     <sheet name="Turkey" sheetId="18" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="19" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="35">
   <si>
     <t>Wg</t>
   </si>
@@ -140,6 +141,12 @@
   </si>
   <si>
     <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2474</t>
   </si>
 </sst>
 </file>
@@ -676,6 +683,122 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BA1577-799E-4892-9ED2-5D38F7133431}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD108E1-815C-407A-BACE-2843BB3D7F68}">
   <dimension ref="A1:D14"/>
@@ -1498,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2F46DB-A339-49DF-884B-815383B5ED49}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDEFD8A-A240-476F-BDE0-668DEC11696E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C725AB2-2FAF-46D2-9864-393C0F0F5869}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="17" r:id="rId8"/>
     <sheet name="Turkey" sheetId="18" r:id="rId9"/>
     <sheet name="Croatia" sheetId="19" r:id="rId10"/>
+    <sheet name="Greece" sheetId="20" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="37">
   <si>
     <t>Wg</t>
   </si>
@@ -147,6 +148,12 @@
   </si>
   <si>
     <t>NGC-3139/T2474</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3206</t>
   </si>
 </sst>
 </file>
@@ -687,6 +694,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BA1577-799E-4892-9ED2-5D38F7133431}">
   <dimension ref="A1:D14"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA3A125-05CB-416D-9383-02DE4D8C8711}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -711,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -733,7 +856,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C725AB2-2FAF-46D2-9864-393C0F0F5869}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB67CA95-8414-4481-8079-B64A4BEF37D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="18" r:id="rId9"/>
     <sheet name="Croatia" sheetId="19" r:id="rId10"/>
     <sheet name="Greece" sheetId="20" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="21" r:id="rId12"/>
+    <sheet name="Austria" sheetId="22" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="23" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="43">
   <si>
     <t>Wg</t>
   </si>
@@ -154,6 +157,24 @@
   </si>
   <si>
     <t>NGC-4119/T3206</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2191</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2298</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2784</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -810,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA3A125-05CB-416D-9383-02DE4D8C8711}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -857,6 +878,357 @@
       </c>
       <c r="B4" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DF44B4-2705-48D5-95BD-BAB32EA196D0}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249AF970-415A-4325-B297-5FBDBF34AB48}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3093C9F-2425-41F9-87AE-408EC0F04933}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB67CA95-8414-4481-8079-B64A4BEF37D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD692DF9-05EB-480D-9F36-89436B0F05E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="21" r:id="rId12"/>
     <sheet name="Austria" sheetId="22" r:id="rId13"/>
     <sheet name="Denmark" sheetId="23" r:id="rId14"/>
+    <sheet name="Russia" sheetId="25" r:id="rId15"/>
+    <sheet name="Finland" sheetId="26" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="27" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="49">
   <si>
     <t>Wg</t>
   </si>
@@ -175,6 +178,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-2929/T2911 </t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-3130/T2888 </t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-3104/T2980 </t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3093C9F-2425-41F9-87AE-408EC0F04933}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1236,6 +1257,354 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2FA9B9-D83E-4EFA-A545-B1CE77987323}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE451E4-2FC3-4910-A0D0-8B42B00E776B}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BC07AD-996B-438E-B612-E14F746E19A0}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD692DF9-05EB-480D-9F36-89436B0F05E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C40961F-2B3B-4B0A-BF0D-47D68224A7A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="25" r:id="rId15"/>
     <sheet name="Finland" sheetId="26" r:id="rId16"/>
     <sheet name="Hungary" sheetId="27" r:id="rId17"/>
+    <sheet name="Norway" sheetId="28" r:id="rId18"/>
+    <sheet name="Poland" sheetId="29" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="53">
   <si>
     <t>Wg</t>
   </si>
@@ -196,6 +198,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3072</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3038</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BC07AD-996B-438E-B612-E14F746E19A0}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -1605,6 +1619,238 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D34836F-4502-4FBF-B9EA-1FF9545D3266}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683A98EA-0F91-4DD6-AE0C-965990D6F5E9}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C40961F-2B3B-4B0A-BF0D-47D68224A7A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74A4A21-05D7-4D06-BA34-16FD1FB452BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="27" r:id="rId17"/>
     <sheet name="Norway" sheetId="28" r:id="rId18"/>
     <sheet name="Poland" sheetId="29" r:id="rId19"/>
+    <sheet name="UK" sheetId="30" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="55">
   <si>
     <t>Wg</t>
   </si>
@@ -210,6 +211,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3366</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1681,7 +1688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D34836F-4502-4FBF-B9EA-1FF9545D3266}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2026,6 +2033,122 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CC4C30-1E09-49BD-B8B2-49492AAA6713}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55030F90-DF7A-4F6D-88F0-5A09BFE8D6D1}">
   <dimension ref="A1:D14"/>
